--- a/biology/Médecine/Paul_Clemens_von_Baumgarten/Paul_Clemens_von_Baumgarten.xlsx
+++ b/biology/Médecine/Paul_Clemens_von_Baumgarten/Paul_Clemens_von_Baumgarten.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Clemens von Baumgarten (né le 28 août 1848 à Dresde et mort le 10 juillet 1928 à Tübingen) est un pathologiste allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un médecin, il devient l'élève de Christian Wilhelm Braune (1831-1892) et de Ernst Leberecht Wagner (en) (1829-1888) à Leipzig, et de  Franz Ernst Christian Neumann (en) (1834-1918).
 Il obtient son doctorat à Leipzig le 22 août 1873 et occupe le poste d'assistant de l'institut d'anatomie de Leipzig sous la direction de Wilhelm His et de Christian Wilhelm Braune.
@@ -546,11 +560,13 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Clemens von Baumgarten décrit le bacille de la tuberculose en 1882, soit la même année que Robert Koch et de façon indépendante.
-À partir de nombreuses recherches expérimentales, il réfute la théorie de Ilya Ilitch Metchnikov sur les phagocytes et établit que les méthodes de Koch pour traiter la tuberculose, inoculée à des lapins ou des cobayes, n'ont aucun effet. Il devient « un des partisans les plus résolus et les plus autorisés de l'hérédité parasitaire de la phtisie »[1].
-Son manuel de mycologie[2] est la première tentative pour développer la pathogénie et l'histo-pathologie des maladies infectieuses basées sur les théories modernes des micro-organismes pathogènes.
+À partir de nombreuses recherches expérimentales, il réfute la théorie de Ilya Ilitch Metchnikov sur les phagocytes et établit que les méthodes de Koch pour traiter la tuberculose, inoculée à des lapins ou des cobayes, n'ont aucun effet. Il devient « un des partisans les plus résolus et les plus autorisés de l'hérédité parasitaire de la phtisie ».
+Son manuel de mycologie est la première tentative pour développer la pathogénie et l'histo-pathologie des maladies infectieuses basées sur les théories modernes des micro-organismes pathogènes.
 De 1885 à 1917, il publie le Jahresberichte über die Fortschritte in der Lehre von den pathogenen Organismen et à partir de 1889, participe à la publication des 99 volumes des Arbeiten auf dem Gebiete der pathogenen Anatomie und Bakteriologie.
 </t>
         </is>
